--- a/odk/tema_1_practica.xlsx
+++ b/odk/tema_1_practica.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="178">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -132,18 +132,84 @@
     <t xml:space="preserve">image</t>
   </si>
   <si>
-    <t xml:space="preserve">foto_grupo1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomen o suban una foto de el/los resultados del grupo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es probable que necesites ajustar los permisos del navegador  y del sitio web</t>
+    <t xml:space="preserve">foto1_grupo1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Figura 1. Tomen o suban una foto de el/los resultados del grupo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es probable que necesiten ajustar los permisos del navegador y del sitio web</t>
   </si>
   <si>
     <t xml:space="preserve">max-pixels=2000</t>
   </si>
   <si>
+    <t xml:space="preserve">pie_foto1_grupo1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descripción, pie de figura 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foto2_grupo1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Figura </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2. Tomen o suban una foto de el/los resultados del grupo</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">pie_foto2_grupo1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descripción, pie de figura 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foto3_grupo1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Figura </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3. Tomen o suban una foto de el/los resultados del grupo</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">pie_foto3_grupo1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descripción, pie de figura 3</t>
+  </si>
+  <si>
     <t xml:space="preserve">grupo_2</t>
   </si>
   <si>
@@ -165,7 +231,22 @@
     <t xml:space="preserve">¿Cómo se relacionan esas formaciones con la biología?</t>
   </si>
   <si>
-    <t xml:space="preserve">foto_grupo2</t>
+    <t xml:space="preserve">foto1_grupo2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pie_foto1_grupo2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foto2_grupo2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pie_foto2_grupo2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foto3_grupo2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pie_foto3_grupo2</t>
   </si>
   <si>
     <t xml:space="preserve">grupo_3</t>
@@ -189,7 +270,22 @@
     <t xml:space="preserve">¿Cómo podrían influir en la vida silvestre o vegetación?</t>
   </si>
   <si>
-    <t xml:space="preserve">foto_grupo3</t>
+    <t xml:space="preserve">foto1_grupo3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pie_foto1_grupo3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foto2_grupo3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pie_foto2_grupo3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foto3_grupo3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pie_foto3_grupo3</t>
   </si>
   <si>
     <t xml:space="preserve">grupo_4</t>
@@ -213,7 +309,22 @@
     <t xml:space="preserve">¿Qué relación tienen con la vegetación o fauna local?</t>
   </si>
   <si>
-    <t xml:space="preserve">foto_grupo4</t>
+    <t xml:space="preserve">foto1_grupo4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pie_foto1_grupo4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foto2_grupo4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pie_foto2_grupo4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foto3_grupo4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pie_foto3_grupo4</t>
   </si>
   <si>
     <t xml:space="preserve">grupo_5</t>
@@ -237,7 +348,22 @@
     <t xml:space="preserve">Propuesta de hipótesis sobre sustrato y distribución</t>
   </si>
   <si>
-    <t xml:space="preserve">foto_grupo5</t>
+    <t xml:space="preserve">foto1_grupo5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pie_foto1_grupo5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foto2_grupo5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pie_foto2_grupo5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foto3_grupo5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pie_foto3_grupo5</t>
   </si>
   <si>
     <t xml:space="preserve">observacion_final</t>
@@ -475,7 +601,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -511,6 +637,17 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -562,7 +699,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -587,6 +724,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -608,13 +757,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:V60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E42" activeCellId="0" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.49"/>
@@ -782,8 +931,8 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="0" t="s">
@@ -795,104 +944,120 @@
       <c r="D11" s="0" t="s">
         <v>38</v>
       </c>
+      <c r="E11" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="G11" s="0" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="K12" s="6"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>12</v>
+      <c r="V11" s="5"/>
+    </row>
+    <row r="12" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="V12" s="5"/>
+    </row>
+    <row r="13" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="0" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="C13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="G13" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="V13" s="5"/>
+    </row>
+    <row r="14" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>32</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E14" s="7"/>
       <c r="I14" s="0" t="n">
         <v>4000</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>22</v>
+      <c r="V14" s="5"/>
+    </row>
+    <row r="15" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>35</v>
+      <c r="C15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="G15" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="V15" s="5"/>
+    </row>
+    <row r="16" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>39</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="I16" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="V16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>26</v>
       </c>
+      <c r="K17" s="9"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -900,10 +1065,10 @@
         <v>22</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>18</v>
@@ -920,10 +1085,10 @@
         <v>22</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>18</v>
@@ -935,12 +1100,12 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>37</v>
@@ -948,85 +1113,101 @@
       <c r="D21" s="0" t="s">
         <v>38</v>
       </c>
+      <c r="E21" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="G21" s="0" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>12</v>
+      <c r="V21" s="5"/>
+    </row>
+    <row r="22" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="V22" s="5"/>
+    </row>
+    <row r="23" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="G23" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="V23" s="5"/>
+    </row>
+    <row r="24" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>32</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E24" s="7"/>
       <c r="I24" s="0" t="n">
         <v>4000</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>22</v>
+      <c r="V24" s="5"/>
+    </row>
+    <row r="25" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="G25" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="V25" s="5"/>
+    </row>
+    <row r="26" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="E25" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="I25" s="0" t="n">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>63</v>
-      </c>
       <c r="C26" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>39</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="I26" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="V26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
@@ -1038,13 +1219,13 @@
         <v>12</v>
       </c>
       <c r="B28" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="F28" s="0" t="s">
         <v>65</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1052,10 +1233,10 @@
         <v>22</v>
       </c>
       <c r="B29" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="0" t="s">
         <v>67</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>68</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>18</v>
@@ -1072,10 +1253,10 @@
         <v>22</v>
       </c>
       <c r="B30" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="0" t="s">
         <v>69</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>70</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>18</v>
@@ -1087,12 +1268,12 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>37</v>
@@ -1100,45 +1281,473 @@
       <c r="D31" s="0" t="s">
         <v>38</v>
       </c>
+      <c r="E31" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="G31" s="0" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>12</v>
+      <c r="V31" s="5"/>
+    </row>
+    <row r="32" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="V32" s="5"/>
+    </row>
+    <row r="33" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="G33" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="V33" s="5"/>
+    </row>
+    <row r="34" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="0" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="0" t="s">
+      <c r="C34" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="I34" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="V34" s="5"/>
+    </row>
+    <row r="35" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C35" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="G35" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="V35" s="5"/>
+    </row>
+    <row r="36" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="H34" s="0" t="s">
+      <c r="C36" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="I36" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="V36" s="5"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H39" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="I34" s="0" t="n">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="I39" s="0" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="V41" s="5"/>
+    </row>
+    <row r="42" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="V42" s="5"/>
+    </row>
+    <row r="43" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="7"/>
+      <c r="G43" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="V43" s="5"/>
+    </row>
+    <row r="44" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" s="7"/>
+      <c r="I44" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="V44" s="5"/>
+    </row>
+    <row r="45" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45" s="7"/>
+      <c r="G45" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="V45" s="5"/>
+    </row>
+    <row r="46" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46" s="7"/>
+      <c r="I46" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="V46" s="5"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I50" s="0" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="V51" s="5"/>
+    </row>
+    <row r="52" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I52" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="V52" s="5"/>
+    </row>
+    <row r="53" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E53" s="7"/>
+      <c r="G53" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="V53" s="5"/>
+    </row>
+    <row r="54" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E54" s="7"/>
+      <c r="I54" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="V54" s="5"/>
+    </row>
+    <row r="55" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E55" s="7"/>
+      <c r="G55" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="V55" s="5"/>
+    </row>
+    <row r="56" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E56" s="7"/>
+      <c r="I56" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="V56" s="5"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="H59" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I59" s="0" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1164,7 +1773,7 @@
       <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="41.4"/>
@@ -1172,7 +1781,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1183,365 +1792,365 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>23</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
     </row>
     <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1607,25 +2216,25 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="73.06"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
